--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_beg.xlsx
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  “Great for off-road performance. Dustproof, climbs hills with ease, incredible range and fuel efficiency. Minimal environmental impact with maximum comfort.” That one?
+    <t xml:space="preserve">[name="Hoshiguma"]  'Great for off-road performance. Dustproof, climbs hills with ease, incredible range and fuel efficiency. Minimal environmental impact with maximum comfort.' That one?
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  They call you “Madame Oni.” They trust you to take care of the Lungmen they love so much. Let me go, Hoshiguma.
+    <t xml:space="preserve">[name="Ch’en"]  They call you 'Madame Oni.' They trust you to take care of the Lungmen they love so much. Let me go, Hoshiguma.
 </t>
   </si>
   <si>
@@ -2252,7 +2252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  “You’re Infected? I don’t care.”
+    <t xml:space="preserve">[name="Hoshiguma"]  'You’re Infected? I don’t care.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_beg.xlsx
@@ -1720,15 +1720,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Uptown Lungmen 7:00 PM, Dusk
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]  A secret arrest warrant? For Ch’en Sir?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]  It’s gotta be a mistake? There’s no way...
+    <t xml:space="preserve">Uptown Lungmen 7:00 P.M., Dusk
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  A secret arrest warrant? For Ch'en Sir?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  It's gotta be a mistake? There's no way...
 </t>
   </si>
   <si>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]  Damn it, Ch’en Sir, what the hell... who’s behind this?!
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Damn it, Ch'en Sir, what the hell... who's behind this?!
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]  No. Go and do what I told you for now. When you’re finished, find somewhere to lay low for a while.
+    <t xml:space="preserve">[name="Rat King"]  No. Go and do what I told you for now. When you're finished, find somewhere to lay low for a while.
 </t>
   </si>
   <si>
@@ -1780,15 +1780,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]  But alas, Lungmen’s finally come to this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rat King"]  But Hui-chieh... Hui-chieh! Be careful, Hui-chieh... You mustn’t get yourself killed!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lungmen Harbor Dock 7:20 PM
+    <t xml:space="preserve">[name="Rat King"]  But alas, Lungmen's finally come to this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  But Hui-chieh... Hui-chieh! Be careful, Hui-chieh... You mustn't get yourself killed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lungmen Harbor Dock 7:20 P.M.
 </t>
   </si>
   <si>
@@ -1796,39 +1796,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Damnit, there’s still so many of them out there... I thought the L.G.D. was supposed to have this area under control?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Yesterday it was Reunion, today it’s these weird Infected. Even we can’t hold them off. And we can’t use heavy-duty weapons inside the city...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Hello, Operators. Is that who we’re fighting today?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Rosmontis! Thank goodness, we’re saved.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  They’re Infected who have been twisted by Arts...? And we can’t stop them?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  That’s right. We mostly brought defense equipment, but I never expected that they’d shred through our steel cables and polyfiber nets like paper. We might have to bring in some military-grade weapons.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  We’re at our limits here, so we had no choice but to ask for backup from the landship. Thankfully, now that you’re here, we might be able to turn the tides.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  The Originium structure inside makes their bodies incredibly tough. We use suppressing fire to keep them under control. Also... our scans aren’t picking up any signs of brain activity at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  The main point there is, they’re pretty much... already physically dead. They’re just empty husks, propped up by Arts. It’s unbelievably cruel...
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Damnit, there's still so many of them out there... I thought the L.G.D. was supposed to have this area under control?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Yesterday it was Reunion, today it's these weird Infected. Even we can't hold them off. And we can't use heavy-duty weapons inside the city...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hello, Operators. Is that who we're fighting today?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Rosmontis! Thank goodness, we're saved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  They're Infected who have been twisted by Arts...? And we can't stop them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  That's right. We mostly brought defense equipment, but I never expected that they'd shred through our steel cables and polyfiber nets like paper. We might have to bring in some military-grade weapons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  We're at our limits here, so we had no choice but to ask for backup from the landship. Thankfully, now that you're here, we might be able to turn the tides.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The Originium structure inside makes their bodies incredibly tough. We use suppressing fire to keep them under control. Also... our scans aren't picking up any signs of brain activity at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The main point there is, they're pretty much... already physically dead. They're just empty husks, propped up by Arts. It's unbelievably cruel...
 </t>
   </si>
   <si>
@@ -1840,11 +1840,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Let’s make a plan. I’ll... get them to settle down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You’re going to fight?", values="1")]
+    <t xml:space="preserve">[name="Rosmontis"]  Let's make a plan. I'll... get them to settle down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You're going to fight?", values="1")]
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Then, you might want to take a step back. I guarantee you’ve never seen anything like this.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Then, you might want to take a step back. I guarantee you've never seen anything like this.
 </t>
   </si>
   <si>
@@ -1872,7 +1872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  It’s mine.
+    <t xml:space="preserve">[name="Rosmontis"]  It's mine.
 </t>
   </si>
   <si>
@@ -1880,15 +1880,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Hold on, I’ll check the manual... Okay, the target’s, uh, a large group of active, restless individuals?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  They’re moving as a group with no clear objective. Their general trend is clear, but with no set route. That should be good enough, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Received. I’ll handle this.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Hold on, I'll check the manual... Okay, the target's, uh, a large group of active, restless individuals?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  They're moving as a group with no clear objective. Their general trend is clear, but with no set route. That should be good enough, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Received. I'll handle this.
 </t>
   </si>
   <si>
@@ -1900,23 +1900,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma...? What are you doing here? How about your injuries?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’m an Oni. Those scratches are long gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Good. Now, I—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hold on. Were you waiting for me here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That dune buggy you’re pushing is a new model from Rim Billiton, right?
+    <t xml:space="preserve">[name="Ch'en"]  Hoshiguma...? What are you doing here? How about your injuries?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I'm an Oni. Those scratches are long gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Good. Now, I—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hold on. Were you waiting for me here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That dune buggy you're pushing is a new model from Rim Billiton, right?
 </t>
   </si>
   <si>
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...
+    <t xml:space="preserve">[name="Ch'en"]  ...
 </t>
   </si>
   <si>
@@ -1932,11 +1932,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  It’s a damn good buggy though. I’m not even into off-roading and I’d like to get one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  What are you trying to say?
+    <t xml:space="preserve">[name="Hoshiguma"]  It's a damn good buggy though. I'm not even into off-roading and I'd like to get one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  What are you trying to say?
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  How did you know I’d be here...?
+    <t xml:space="preserve">[name="Ch'en"]  How did you know I'd be here...?
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  But that’s not what you’re here for.
+    <t xml:space="preserve">[name="Ch'en"]  But that's not what you're here for.
 </t>
   </si>
   <si>
@@ -1964,39 +1964,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  This is my only way out of Lungmen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I stayed dark the whole way. If the whole L.G.D. knew me half as well as you do...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Then you’ll never make it out of Lungmen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...Excuse me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  What do you mean by that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  They’re just like me. They don’t want you to go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma... are you going to stop me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Why you, of all people, Hoshiguma?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Of course I am, Ch'en. I’m an L.G.D. inspector, and more importantly, your friend.
+    <t xml:space="preserve">[name="Ch'en"]  This is my only way out of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I stayed dark the whole way. If the whole L.G.D. knew me half as well as you do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Then you'll never make it out of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...Excuse me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  What do you mean by that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  They're just like me. They don't want you to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hoshiguma... are you going to stop me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Why you, of all people, Hoshiguma?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Of course I am, Ch'en. I'm an L.G.D. inspector, and more importantly, your friend.
 </t>
   </si>
   <si>
@@ -2004,11 +2004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You’re a Lungmenite, Hoshiguma!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  This is our last chance. If Wei Yenwu has it his way, more people are going to die!
+    <t xml:space="preserve">[name="Ch'en"]  You're a Lungmenite, Hoshiguma!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  This is our last chance. If Wei Yenwu has it his way, more people are going to die!
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  They call you 'Madame Oni.' They trust you to take care of the Lungmen they love so much. Let me go, Hoshiguma.
+    <t xml:space="preserve">[name="Ch'en"]  They call you 'Madame Oni.' They trust you to take care of the Lungmen they love so much. Let me go, Hoshiguma.
 </t>
   </si>
   <si>
@@ -2028,11 +2028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Me? I’m old school.
+    <t xml:space="preserve">[name="Ch'en"]  You—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Me? I'm old school.
 </t>
   </si>
   <si>
@@ -2044,7 +2044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I can’t. No way. It moves too fast. That chase has crushed so much of what I cared about.
+    <t xml:space="preserve">[name="Hoshiguma"]  I can't. No way. It moves too fast. That chase has crushed so much of what I cared about.
 </t>
   </si>
   <si>
@@ -2064,19 +2064,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  They didn’t love Lungmen. They simply had nowhere else to go. And in the end, that was my fault.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You’re not going anywhere, Ch'en.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Ah Faat died, all those people died for Lungmen... You’re going to pretend you never saw any of that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Don’t act like you knew them.
+    <t xml:space="preserve">[name="Hoshiguma"]  They didn't love Lungmen. They simply had nowhere else to go. And in the end, that was my fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You're not going anywhere, Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Ah Faat died, all those people died for Lungmen... You're going to pretend you never saw any of that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Don't act like you knew them.
 </t>
   </si>
   <si>
@@ -2084,15 +2084,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  It’s my duty to protect Lungmen. No matter who stands in my way, it’s my duty. That hasn’t changed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  So you’re still Superintendent Ch'en? And who gave you this duty?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I did.
+    <t xml:space="preserve">[name="Ch'en"]  It's my duty to protect Lungmen. No matter who stands in my way, it's my duty. That hasn't changed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  So you're still Superintendent Ch'en? And who gave you this duty?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I did.
 </t>
   </si>
   <si>
@@ -2100,19 +2100,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Look at you. You’re gonna save Lungmen all by yourself? One woman against all of Reunion? Your temper tantrum won’t get you that far.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  It’s funny. You’re the one who always carried out Mr. Wei’s orders, because you could relate with him. Now I’m the one who relates with him a bit better, and I’m the one carrying out his orders. How the tables have turned.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’ve seen the gist of Mr. Wei’s plans. If someone has to die, Mr. Wei thinks it ought to be him. You’re carrying the Ch’en family’s blood. Once all this blows over, no one’s coming after you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You mean, he—
+    <t xml:space="preserve">[name="Hoshiguma"]  Look at you. You're gonna save Lungmen all by yourself? One woman against all of Reunion? Your temper tantrum won't get you that far.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  It's funny. You're the one who always carried out Mr. Wei's orders, because you could relate with him. Now I'm the one who relates with him a bit better, and I'm the one carrying out his orders. How the tables have turned.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I've seen the gist of Mr. Wei's plans. If someone has to die, Mr. Wei thinks it ought to be him. You're carrying the Ch'en family's blood. Once all this blows over, no one's coming after you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You mean, he—
 </t>
   </si>
   <si>
@@ -2120,63 +2120,63 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You give him too much credit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Maybe you don’t give him enough, Ch'en.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  If he wants to die, he’s welcome to it. But what will that get us? What’s the point? Will it prevent a war? Will it get Lungmen out of this mess?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  If he dies, it’ll get some of the blame off Lungmen. I think all the blame will pretty much vanish into thin air, actually.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You really think it’ll be that easy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Nothing’s ever that easy. That’s why he wants you running the L.G.D.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You’ll get his job and be Chief of the L.G.D. sooner or later. After that, you’ll become the boss of the entire city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  There’s been a lot of rot left behind, and you should be the one to clean it out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I get what Mr. Wei wants from you. Though he’s been waiting for a long time, I can tell that his beliefs and methods haven’t changed from the day I met him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Lungmen still needs you. And she doesn’t want you in danger.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’m just so disgusted.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Mr. Wei’s death may not matter to you. But once he’s gone, you can change this city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I have to tell you something, Hoshiguma. It’s the reason I don’t belong here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Don’t mess with me, Ch'en. No one’s more Lungmen than you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’m an Infected.
+    <t xml:space="preserve">[name="Ch'en"]  You give him too much credit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Maybe you don't give him enough, Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  If he wants to die, he's welcome to it. But what will that get us? What's the point? Will it prevent a war? Will it get Lungmen out of this mess?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  If he dies, it'll get some of the blame off Lungmen. I think all the blame will pretty much vanish into thin air, actually.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You really think it'll be that easy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Nothing's ever that easy. That's why he wants you running the L.G.D.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You'll get his job and be Chief of the L.G.D. sooner or later. After that, you'll become the boss of the entire city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  There's been a lot of rot left behind, and you should be the one to clean it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I get what Mr. Wei wants from you. Though he's been waiting for a long time, I can tell that his beliefs and methods haven't changed from the day I met him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Lungmen still needs you. And she doesn't want you in danger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I'm just so disgusted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Mr. Wei's death may not matter to you. But once he's gone, you can change this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I have to tell you something, Hoshiguma. It's the reason I don't belong here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Don't mess with me, Ch'en. No one's more Lungmen than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I'm an Infected.
 </t>
   </si>
   <si>
@@ -2192,31 +2192,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Three years ago.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You’ve been hiding it from me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I didn’t mean to...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  How come you didn’t even tell me...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu didn’t want anyone to know. We couldn’t have an Infected in the L.G.D. So I couldn’t be Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma, there is no place for the Infected here. Or anywhere else in the world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’ve had enough of Wei Yenwu controlling us. I’m not going to be his tool anymore.
+    <t xml:space="preserve">[name="Ch'en"]  Three years ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You've been hiding it from me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I didn't mean to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  How come you didn't even tell me...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Wei Yenwu didn't want anyone to know. We couldn't have an Infected in the L.G.D. So I couldn't be Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hoshiguma, there is no place for the Infected here. Or anywhere else in the world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I've had enough of Wei Yenwu controlling us. I'm not going to be his tool anymore.
 </t>
   </si>
   <si>
@@ -2224,11 +2224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I finally... actually, really get it, Ch'en. I know exactly why you can’t leave Lungmen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...What?
+    <t xml:space="preserve">[name="Hoshiguma"]  I finally... actually, really get it, Ch'en. I know exactly why you can't leave Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...What?
 </t>
   </si>
   <si>
@@ -2236,39 +2236,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  The whole city would know you’re Infected. They might even think you’re working with Reunion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  And that’ll be the end of it. You’ll never be able to come back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I don’t care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That’s my line.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  'You’re Infected? I don’t care.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I don’t care. Missy doesn’t care. Nine doesn’t care. The L.G.D. doesn’t care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Not even Mr. Wei cares. He wants you to change this place. He doesn’t want you gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You didn’t see how ruthlessly he treated the Infected. I did.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  And Nine? She’s already gone. She quit the L.G.D. because she was Infected too.
+    <t xml:space="preserve">[name="Hoshiguma"]  The whole city would know you're Infected. They might even think you're working with Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  And that'll be the end of it. You'll never be able to come back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I don't care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That's my line.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  'You're Infected? I don't care.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don't care. Missy doesn't care. Nine doesn't care. The L.G.D. doesn't care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Not even Mr. Wei cares. He wants you to change this place. He doesn't want you gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You didn't see how ruthlessly he treated the Infected. I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  And Nine? She's already gone. She quit the L.G.D. because she was Infected too.
 </t>
   </si>
   <si>
@@ -2276,35 +2276,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You know, Nine and I might’ve contracted Oripathy on the same mission.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  She went undercover for me in Reunion... And then, because of Reunion, she abandoned Lungmen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Because she saw the truth of this city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  But you didn’t betray Lungmen. I’m not letting you take the fall for a crime you didn’t commit. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma, why do you think... I’m going to the core city?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’ve never been good at guessing games. Just get to the point.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Heh...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Do you know who’s leading Reunion?
+    <t xml:space="preserve">[name="Ch'en"]  You know, Nine and I might've contracted Oripathy on the same mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  She went undercover for me in Reunion... And then, because of Reunion, she abandoned Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Because she saw the truth of this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  But you didn't betray Lungmen. I'm not letting you take the fall for a crime you didn't commit. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hoshiguma, why do you think... I'm going to the core city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I've never been good at guessing games. Just get to the point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Heh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Do you know who's leading Reunion?
 </t>
   </si>
   <si>
@@ -2312,11 +2312,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Talulah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Missy didn’t tell you?
+    <t xml:space="preserve">[name="Ch'en"]  Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Missy didn't tell you?
 </t>
   </si>
   <si>
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Talulah is my sister.
+    <t xml:space="preserve">[name="Ch'en"]  Talulah is my sister.
 </t>
   </si>
   <si>
@@ -2332,27 +2332,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, you’re not going today.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...Why...? Is my sister, my family... not important enough?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That’s why...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That’s why I can’t let you go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Even if I have to die here. I’m not letting you go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  That’s not for you to decide, Hoshiguma.
+    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, you're not going today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...Why...? Is my sister, my family... not important enough?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That's why...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That's why I can't let you go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Even if I have to die here. I'm not letting you go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  That's not for you to decide, Hoshiguma.
 </t>
   </si>
   <si>
@@ -2360,7 +2360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  —No matter what stands in my way, whether it’s a Catastrophe, a shield, or an Oni, I’m not giving in!
+    <t xml:space="preserve">[name="Ch'en"]  —No matter what stands in my way, whether it's a Catastrophe, a shield, or an Oni, I'm not giving in!
 </t>
   </si>
   <si>
@@ -2372,35 +2372,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, Mr. Wei isn’t a good man. We can kick his ass together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Whatever you want to do, I’ll do it with you. You want my Columbian Big Single 70 vv? It’s yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, now’s not the time. Don’t go. Don’t force me to do this. It’s all I ask.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Force you? Why are you talking like Wei Yenwu...? I don’t like it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  When Wei did what he did... no.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  When he betrayed his brother, failed my mother, and put this city to sleep under his cloud of wickedness, that’s when I decided to do this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You might think that stuff has anything to do with you, but I don’t think so.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  What do you mean...?
+    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, Mr. Wei isn't a good man. We can kick his ass together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Whatever you want to do, I'll do it with you. You want my Columbian Big Single 70 vv? It's yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, now's not the time. Don't go. Don't force me to do this. It's all I ask.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Force you? Why are you talking like Wei Yenwu...? I don't like it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  When Wei did what he did... no.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  When he betrayed his brother, failed my mother, and put this city to sleep under his cloud of wickedness, that's when I decided to do this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You might think that stuff has anything to do with you, but I don't think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  What do you mean...?
 </t>
   </si>
   <si>
@@ -2408,7 +2408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That’s what Mr. Wei was hoping for. He didn’t want to play the bad guy. He’s not power-hungry...
+    <t xml:space="preserve">[name="Hoshiguma"]  That's what Mr. Wei was hoping for. He didn't want to play the bad guy. He's not power-hungry...
 </t>
   </si>
   <si>
@@ -2416,7 +2416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  …You don’t get it.
+    <t xml:space="preserve">[name="Ch'en"]  ...You don't get it.
 </t>
   </si>
   <si>
@@ -2424,7 +2424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  It wasn’t just one time. It happened again, and again, and again... I destroyed my home, I destroyed my family.
+    <t xml:space="preserve">[name="Hoshiguma"]  It wasn't just one time. It happened again, and again, and again... I destroyed my home, I destroyed my family.
 </t>
   </si>
   <si>
@@ -2432,7 +2432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Because that’s what I thought was right. And they were wrong.
+    <t xml:space="preserve">[name="Hoshiguma"]  Because that's what I thought was right. And they were wrong.
 </t>
   </si>
   <si>
@@ -2440,51 +2440,51 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I don’t. But I lived anyway. I just can’t live for myself anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Putting yourself out because of some concept of right and wrong... that’s the dumbest thing a person can do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  And I’ve dealt with the regret my whole life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You think you’re the only one who’s got a lot of baggage, Miss Ch'en?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Stop talking like that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  ...So why can’t you understand me, even a little bit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  We’ve been through so much together, all these years. There’s still something you can’t tell me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’ve got my baggage and you’ve got yours. We both know that. Even so...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  What is there you still don’t understand? I never pulled any of you into this! How can you say I don’t understand you?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Because I’ve seen too many people die for nothing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I don’t care who you are. I just care where you’re going.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’m not letting you go. This is all on the leader of Reunion. You can’t change the situation. You’ll just die for nothing too.
+    <t xml:space="preserve">[name="Hoshiguma"]  I don't. But I lived anyway. I just can't live for myself anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Putting yourself out because of some concept of right and wrong... that's the dumbest thing a person can do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  And I've dealt with the regret my whole life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You think you're the only one who's got a lot of baggage, Miss Ch'en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Stop talking like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...So why can't you understand me, even a little bit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  We've been through so much together, all these years. There's still something you can't tell me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I've got my baggage and you've got yours. We both know that. Even so...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  What is there you still don't understand? I never pulled any of you into this! How can you say I don't understand you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Because I've seen too many people die for nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don't care who you are. I just care where you're going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I'm not letting you go. This is all on the leader of Reunion. You can't change the situation. You'll just die for nothing too.
 </t>
   </si>
   <si>
@@ -2492,11 +2492,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  —Thank you, Hoshiguma.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  But I’m still going.
+    <t xml:space="preserve">[name="Ch'en"]  —Thank you, Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  But I'm still going.
 </t>
   </si>
   <si>
@@ -2504,7 +2504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  If we have to fight, you should know I’m not scared of you.
+    <t xml:space="preserve">[name="Ch'en"]  If we have to fight, you should know I'm not scared of you.
 </t>
   </si>
   <si>
@@ -2512,7 +2512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I told you before, you’re lost in your own thoughts, you lost sight of everything around you, of everything everyone’s done for you.
+    <t xml:space="preserve">[name="Hoshiguma"]  I told you before, you're lost in your own thoughts, you lost sight of everything around you, of everything everyone's done for you.
 </t>
   </si>
   <si>
@@ -2520,19 +2520,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hmph.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Fine. I guess you’ll have to take a beating before you can learn, like a young Hoshiguma, that being a stubborn ass is just a stupid impulse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  If you want to fight, Ch'en... Then let’s do it. Show me everything you’ve learned in the last two years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Stop. Talking. Like. That.
+    <t xml:space="preserve">[name="Ch'en"]  Hmph.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Fine. I guess you'll have to take a beating before you can learn, like a young Hoshiguma, that being a stubborn ass is just a stupid impulse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  If you want to fight, Ch'en... Then let's do it. Show me everything you've learned in the last two years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Stop. Talking. Like. That.
 </t>
   </si>
   <si>
@@ -2548,7 +2548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Okay. I’m going.
+    <t xml:space="preserve">[name="Rosmontis"]  Okay. I'm going.
 </t>
   </si>
   <si>
@@ -2556,11 +2556,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Hurry, Doctor, get in the cabin. Don’t watch.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  If you get hit by Rosmontis’s shrapnel, you’re pretty much a goner.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Hurry, Doctor, get in the cabin. Don't watch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  If you get hit by Rosmontis's shrapnel, you're pretty much a goner.
 </t>
   </si>
   <si>
